--- a/Weibull_constants_diagonals_vary_Height_alpha=5.xlsx
+++ b/Weibull_constants_diagonals_vary_Height_alpha=5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\1SUTD\0Globalfoundries\0STT-MRAM\Monte-Carlos-MgO-TDDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6D5CE2-84CE-440F-94D3-BAC28F0EF640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD425965-F515-464B-AF41-A2E66D059D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
